--- a/index.xlsx
+++ b/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Data collation guide\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armstrong\Desktop\Github\DRCTdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33AF04D-7D3B-49C5-8153-39BE111B03B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D850C0-04B1-4AA5-92F2-96CA3BFA1099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cardiac cell type–specific gene regulatory programs and disease risk association</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hg38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,12 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -129,6 +123,27 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
@@ -154,19 +169,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比 2" xfId="2" xr:uid="{E6F0FD2E-2652-431D-9988-4A638CC91979}"/>
@@ -453,75 +474,76 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C3" sqref="C3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,164 +1,563 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armstrong\Desktop\Github\DRCTdb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D850C0-04B1-4AA5-92F2-96CA3BFA1099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+  <si>
+    <t>Sample</t>
+  </si>
   <si>
     <t>Modality</t>
   </si>
   <si>
-    <t>Sample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Cell annotation</t>
+  </si>
+  <si>
+    <t>Reference genome</t>
+  </si>
+  <si>
+    <t>Generated cell speific bed file</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>Sample1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>scRNA-seq,scATAC-seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hg38</t>
   </si>
   <si>
     <t>Cardiac cell type–specific gene regulatory programs and disease risk association</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE165839</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Related eqtl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tissue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell annotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reference genome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hg38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>DISCO: a database of Deeply Integrated human Single-Cell Omics data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.immunesinglecell.org/download
+</t>
+  </si>
+  <si>
+    <t>Sample2</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>Single-cell RNA sequencing reveals profibrotic roles of distinct epithelial and mesenchymal lineages in pulmonary fibrosis</t>
+  </si>
+  <si>
+    <t>https://github.com/tgen/banovichlab/tree/master/pulmonary_fibrosis/10x_scRNA-Seq_2019</t>
+  </si>
+  <si>
+    <t>Sample3</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>A single-cell atlas of chromatin accessibility in the human genome</t>
+  </si>
+  <si>
+    <t>http://catlas.org/humanenhancer/#!/home</t>
+  </si>
+  <si>
+    <t>Sample4</t>
+  </si>
+  <si>
+    <t>fetal</t>
+  </si>
+  <si>
+    <t>Integrative single-cell analysis of cardiogenesis identifies developmental trajectories and non_x0002_coding mutations in congenital heart disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/kundajelab/Cardiogenesis_Repo
+</t>
+  </si>
+  <si>
+    <t>Sample5</t>
+  </si>
+  <si>
+    <t>scATAC-seq</t>
+  </si>
+  <si>
+    <t>A human cell atlas of fetal chromatin accessibility</t>
+  </si>
+  <si>
+    <t>https://descartes.brotmanbaty.org/bbi/human-chromatin-during-development/</t>
+  </si>
+  <si>
+    <t>Sample6</t>
+  </si>
+  <si>
+    <t>A single-cell transcriptome atlas profiles early organogenesis in human embryos</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE157329</t>
+  </si>
+  <si>
+    <t>Sample7</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retina </t>
+  </si>
+  <si>
+    <t>Single-cell multiome of the human retina and deep learning nominate causal variants in complex eye diseases</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE196235</t>
+  </si>
+  <si>
+    <t>Sample8</t>
+  </si>
+  <si>
+    <t>cortex of kidney</t>
+  </si>
+  <si>
+    <t>Multimodal single cell sequencing implicates chromatin accessibility and genetic background in diabetic kidney disease progression</t>
+  </si>
+  <si>
+    <t>https://cellxgene.cziscience.com/collections/b3e2c6e3-9b05-4da9-8f42-da38a664b45b</t>
+  </si>
+  <si>
+    <t>Sample9</t>
+  </si>
+  <si>
+    <t>ovary and fallopian</t>
+  </si>
+  <si>
+    <t>A molecular atlas of the human postmenopausal fallopian tube and ovary from single-cell RNA and ATAC sequencing</t>
+  </si>
+  <si>
+    <t>https://cellxgene.cziscience.com/collections/d36ca85c-3e8b-444c-ba3e-a645040c6185</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="16"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,43 +565,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{E6F0FD2E-2652-431D-9988-4A638CC91979}"/>
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{5EE10265-87E5-4929-8CCA-608C1E2DC4B0}"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="百分比 2" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -251,7 +929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -286,7 +964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -460,98 +1138,446 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="84" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.1296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.37962962962963" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.6296296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45" style="2" customWidth="1"/>
+    <col min="8" max="8" width="158.62962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="107.12962962963" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="21" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="21" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="21" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="21" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="21" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="21" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="21" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="21" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="21" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="21" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="21" spans="1:8">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="21"/>
+    <row r="22" s="1" customFormat="1" ht="21"/>
+    <row r="23" s="1" customFormat="1" ht="21"/>
+    <row r="24" s="1" customFormat="1" ht="21"/>
+    <row r="25" s="1" customFormat="1" ht="21"/>
+    <row r="26" s="1" customFormat="1" ht="21"/>
+    <row r="27" s="1" customFormat="1" ht="21"/>
+    <row r="28" s="1" customFormat="1" ht="21"/>
+    <row r="29" s="1" customFormat="1" ht="21"/>
+    <row r="30" s="1" customFormat="1" ht="21"/>
+    <row r="31" s="1" customFormat="1" ht="21"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{91F11F20-5F9B-4464-BC8F-8061A4FD7AEF}"/>
+    <hyperlink ref="I2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE165839"/>
+    <hyperlink ref="I3" r:id="rId2" display="http://www.immunesinglecell.org/download&#10;"/>
+    <hyperlink ref="I4" r:id="rId3" display="https://github.com/tgen/banovichlab/tree/master/pulmonary_fibrosis/10x_scRNA-Seq_2019"/>
+    <hyperlink ref="I5" r:id="rId4" location="!/home" display="http://catlas.org/humanenhancer/#!/home"/>
+    <hyperlink ref="I6" r:id="rId5" display="https://github.com/kundajelab/Cardiogenesis_Repo&#10;"/>
+    <hyperlink ref="I7" r:id="rId6" display="https://descartes.brotmanbaty.org/bbi/human-chromatin-during-development/"/>
+    <hyperlink ref="I9" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE196235"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>